--- a/slides/br_sal_paeg.xlsx
+++ b/slides/br_sal_paeg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Ano</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">1970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973</t>
   </si>
 </sst>
 </file>
@@ -181,32 +190,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:10"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="28.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -447,18 +454,93 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
